--- a/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Anxa1-Fpr2.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Anxa1-Fpr2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T31"/>
+  <dimension ref="A1:T25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -534,7 +534,7 @@
         <v>27</v>
       </c>
       <c r="D2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E2">
         <v>2</v>
@@ -543,46 +543,46 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>19.892432</v>
+        <v>31.084226</v>
       </c>
       <c r="H2">
-        <v>39.784864</v>
+        <v>62.168452</v>
       </c>
       <c r="I2">
-        <v>0.03638758592113072</v>
+        <v>0.04076764040527087</v>
       </c>
       <c r="J2">
-        <v>0.02605491730493311</v>
+        <v>0.02918716971244894</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
-        <v>0.5</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>0.078566</v>
+        <v>0.559584</v>
       </c>
       <c r="N2">
-        <v>0.157132</v>
+        <v>1.678752</v>
       </c>
       <c r="O2">
-        <v>0.004019777884324682</v>
+        <v>0.003429531108364747</v>
       </c>
       <c r="P2">
-        <v>0.002683447543913378</v>
+        <v>0.003429531108364747</v>
       </c>
       <c r="Q2">
-        <v>1.562868812512</v>
+        <v>17.394235521984</v>
       </c>
       <c r="R2">
-        <v>6.251475250047999</v>
+        <v>104.365413131904</v>
       </c>
       <c r="S2">
-        <v>0.0001462700131497254</v>
+        <v>0.0001398138909845041</v>
       </c>
       <c r="T2">
-        <v>6.991700384878892E-05</v>
+        <v>0.000100098306493965</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,7 +596,7 @@
         <v>27</v>
       </c>
       <c r="D3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E3">
         <v>2</v>
@@ -605,46 +605,46 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>19.892432</v>
+        <v>31.084226</v>
       </c>
       <c r="H3">
-        <v>39.784864</v>
+        <v>62.168452</v>
       </c>
       <c r="I3">
-        <v>0.03638758592113072</v>
+        <v>0.04076764040527087</v>
       </c>
       <c r="J3">
-        <v>0.02605491730493311</v>
+        <v>0.02918716971244894</v>
       </c>
       <c r="K3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L3">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M3">
-        <v>0.559584</v>
+        <v>28.05830633333333</v>
       </c>
       <c r="N3">
-        <v>1.678752</v>
+        <v>84.17491899999999</v>
       </c>
       <c r="O3">
-        <v>0.02863074851235831</v>
+        <v>0.1719613756258118</v>
       </c>
       <c r="P3">
-        <v>0.02866916306824626</v>
+        <v>0.1719613756258118</v>
       </c>
       <c r="Q3">
-        <v>11.131486668288</v>
+        <v>872.1707352425647</v>
       </c>
       <c r="R3">
-        <v>66.788920009728</v>
+        <v>5233.024411455387</v>
       </c>
       <c r="S3">
-        <v>0.001041803821479723</v>
+        <v>0.007010459525108806</v>
       </c>
       <c r="T3">
-        <v>0.0007469726729447987</v>
+        <v>0.00501906585437675</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,7 +658,7 @@
         <v>27</v>
       </c>
       <c r="D4" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E4">
         <v>2</v>
@@ -667,16 +667,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>19.892432</v>
+        <v>31.084226</v>
       </c>
       <c r="H4">
-        <v>39.784864</v>
+        <v>62.168452</v>
       </c>
       <c r="I4">
-        <v>0.03638758592113072</v>
+        <v>0.04076764040527087</v>
       </c>
       <c r="J4">
-        <v>0.02605491730493311</v>
+        <v>0.02918716971244894</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>8.038439</v>
+        <v>131.297198</v>
       </c>
       <c r="N4">
-        <v>24.115317</v>
+        <v>393.891594</v>
       </c>
       <c r="O4">
-        <v>0.4112814616588985</v>
+        <v>0.8046831663916869</v>
       </c>
       <c r="P4">
-        <v>0.4118332877729713</v>
+        <v>0.8046831663916869</v>
       </c>
       <c r="Q4">
-        <v>159.904101193648</v>
+        <v>4081.271775798748</v>
       </c>
       <c r="R4">
-        <v>959.424607161888</v>
+        <v>24487.63065479249</v>
       </c>
       <c r="S4">
-        <v>0.0149655395238814</v>
+        <v>0.03280503396763104</v>
       </c>
       <c r="T4">
-        <v>0.01073028225634349</v>
+        <v>0.02348642414222495</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,7 +720,7 @@
         <v>27</v>
       </c>
       <c r="D5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E5">
         <v>2</v>
@@ -729,51 +729,51 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>19.892432</v>
+        <v>31.084226</v>
       </c>
       <c r="H5">
-        <v>39.784864</v>
+        <v>62.168452</v>
       </c>
       <c r="I5">
-        <v>0.03638758592113072</v>
+        <v>0.04076764040527087</v>
       </c>
       <c r="J5">
-        <v>0.02605491730493311</v>
+        <v>0.02918716971244894</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M5">
-        <v>0.050657</v>
+        <v>3.251240333333333</v>
       </c>
       <c r="N5">
-        <v>0.151971</v>
+        <v>9.753720999999999</v>
       </c>
       <c r="O5">
-        <v>0.002591832195685608</v>
+        <v>0.01992592687413657</v>
       </c>
       <c r="P5">
-        <v>0.002595309718555481</v>
+        <v>0.01992592687413657</v>
       </c>
       <c r="Q5">
-        <v>1.007690927824</v>
+        <v>101.0622893016487</v>
       </c>
       <c r="R5">
-        <v>6.046145566943999</v>
+        <v>606.373735809892</v>
       </c>
       <c r="S5">
-        <v>9.431051671366293E-05</v>
+        <v>0.0008123330215465226</v>
       </c>
       <c r="T5">
-        <v>6.762058009765229E-05</v>
+        <v>0.0005815814093532711</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B6" t="s">
         <v>26</v>
@@ -782,55 +782,55 @@
         <v>27</v>
       </c>
       <c r="D6" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E6">
+        <v>3</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6">
+        <v>210.2874346666667</v>
+      </c>
+      <c r="H6">
+        <v>630.862304</v>
+      </c>
+      <c r="I6">
+        <v>0.2757965573354652</v>
+      </c>
+      <c r="J6">
+        <v>0.2961805311162413</v>
+      </c>
+      <c r="K6">
         <v>2</v>
       </c>
-      <c r="F6">
-        <v>1</v>
-      </c>
-      <c r="G6">
-        <v>19.892432</v>
-      </c>
-      <c r="H6">
-        <v>39.784864</v>
-      </c>
-      <c r="I6">
-        <v>0.03638758592113072</v>
-      </c>
-      <c r="J6">
-        <v>0.02605491730493311</v>
-      </c>
-      <c r="K6">
-        <v>3</v>
-      </c>
       <c r="L6">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M6">
-        <v>10.817615</v>
+        <v>0.559584</v>
       </c>
       <c r="N6">
-        <v>32.452845</v>
+        <v>1.678752</v>
       </c>
       <c r="O6">
-        <v>0.553476179748733</v>
+        <v>0.003429531108364747</v>
       </c>
       <c r="P6">
-        <v>0.5542187918963136</v>
+        <v>0.003429531108364747</v>
       </c>
       <c r="Q6">
-        <v>215.18867078968</v>
+        <v>117.673483840512</v>
       </c>
       <c r="R6">
-        <v>1291.13202473808</v>
+        <v>1059.061354564608</v>
       </c>
       <c r="S6">
-        <v>0.02013966204590621</v>
+        <v>0.0009458528729618794</v>
       </c>
       <c r="T6">
-        <v>0.01444012479169839</v>
+        <v>0.001015760345155143</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -844,7 +844,7 @@
         <v>27</v>
       </c>
       <c r="D7" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E7">
         <v>3</v>
@@ -859,40 +859,40 @@
         <v>630.862304</v>
       </c>
       <c r="I7">
-        <v>0.3846614680933682</v>
+        <v>0.2757965573354652</v>
       </c>
       <c r="J7">
-        <v>0.4131487080493621</v>
+        <v>0.2961805311162413</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="M7">
-        <v>0.078566</v>
+        <v>28.05830633333333</v>
       </c>
       <c r="N7">
-        <v>0.157132</v>
+        <v>84.17491899999999</v>
       </c>
       <c r="O7">
-        <v>0.004019777884324682</v>
+        <v>0.1719613756258118</v>
       </c>
       <c r="P7">
-        <v>0.002683447543913378</v>
+        <v>0.1719613756258118</v>
       </c>
       <c r="Q7">
-        <v>16.52144259202133</v>
+        <v>5900.309259928152</v>
       </c>
       <c r="R7">
-        <v>99.128655552128</v>
+        <v>53102.78333935337</v>
       </c>
       <c r="S7">
-        <v>0.001546253662393586</v>
+        <v>0.04742635539226967</v>
       </c>
       <c r="T7">
-        <v>0.001108662885886046</v>
+        <v>0.05093161156433241</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,7 +906,7 @@
         <v>27</v>
       </c>
       <c r="D8" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E8">
         <v>3</v>
@@ -921,40 +921,40 @@
         <v>630.862304</v>
       </c>
       <c r="I8">
-        <v>0.3846614680933682</v>
+        <v>0.2757965573354652</v>
       </c>
       <c r="J8">
-        <v>0.4131487080493621</v>
+        <v>0.2961805311162413</v>
       </c>
       <c r="K8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L8">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M8">
-        <v>0.559584</v>
+        <v>131.297198</v>
       </c>
       <c r="N8">
-        <v>1.678752</v>
+        <v>393.891594</v>
       </c>
       <c r="O8">
-        <v>0.02863074851235831</v>
+        <v>0.8046831663916869</v>
       </c>
       <c r="P8">
-        <v>0.02866916306824626</v>
+        <v>0.8046831663916869</v>
       </c>
       <c r="Q8">
-        <v>117.673483840512</v>
+        <v>27610.1509463414</v>
       </c>
       <c r="R8">
-        <v>1059.061354564608</v>
+        <v>248491.3585170726</v>
       </c>
       <c r="S8">
-        <v>0.01101314575537576</v>
+        <v>0.2219288470366285</v>
       </c>
       <c r="T8">
-        <v>0.01184462768250243</v>
+        <v>0.2383314876021886</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,7 +968,7 @@
         <v>27</v>
       </c>
       <c r="D9" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="E9">
         <v>3</v>
@@ -983,10 +983,10 @@
         <v>630.862304</v>
       </c>
       <c r="I9">
-        <v>0.3846614680933682</v>
+        <v>0.2757965573354652</v>
       </c>
       <c r="J9">
-        <v>0.4131487080493621</v>
+        <v>0.2961805311162413</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -995,43 +995,43 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>8.038439</v>
+        <v>3.251240333333333</v>
       </c>
       <c r="N9">
-        <v>24.115317</v>
+        <v>9.753720999999999</v>
       </c>
       <c r="O9">
-        <v>0.4112814616588985</v>
+        <v>0.01992592687413657</v>
       </c>
       <c r="P9">
-        <v>0.4118332877729713</v>
+        <v>0.01992592687413657</v>
       </c>
       <c r="Q9">
-        <v>1690.382716034485</v>
+        <v>683.6949891814648</v>
       </c>
       <c r="R9">
-        <v>15213.44444431037</v>
+        <v>6153.254902633184</v>
       </c>
       <c r="S9">
-        <v>0.1582041308412982</v>
+        <v>0.005495502033605092</v>
       </c>
       <c r="T9">
-        <v>0.1701483907751243</v>
+        <v>0.005901671604565154</v>
       </c>
     </row>
     <row r="10" spans="1:20">
       <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
+        <v>26</v>
+      </c>
+      <c r="C10" t="s">
+        <v>27</v>
+      </c>
+      <c r="D10" t="s">
         <v>21</v>
       </c>
-      <c r="B10" t="s">
-        <v>26</v>
-      </c>
-      <c r="C10" t="s">
-        <v>27</v>
-      </c>
-      <c r="D10" t="s">
-        <v>24</v>
-      </c>
       <c r="E10">
         <v>3</v>
       </c>
@@ -1039,51 +1039,51 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>210.2874346666667</v>
+        <v>131.5521063333333</v>
       </c>
       <c r="H10">
-        <v>630.862304</v>
+        <v>394.6563190000001</v>
       </c>
       <c r="I10">
-        <v>0.3846614680933682</v>
+        <v>0.172533456858578</v>
       </c>
       <c r="J10">
-        <v>0.4131487080493621</v>
+        <v>0.1852853109603467</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L10">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M10">
-        <v>0.050657</v>
+        <v>0.559584</v>
       </c>
       <c r="N10">
-        <v>0.151971</v>
+        <v>1.678752</v>
       </c>
       <c r="O10">
-        <v>0.002591832195685608</v>
+        <v>0.003429531108364747</v>
       </c>
       <c r="P10">
-        <v>0.002595309718555481</v>
+        <v>0.003429531108364747</v>
       </c>
       <c r="Q10">
-        <v>10.65253057790933</v>
+        <v>73.614453870432</v>
       </c>
       <c r="R10">
-        <v>95.872775201184</v>
+        <v>662.5300848338881</v>
       </c>
       <c r="S10">
-        <v>0.0009969779774440836</v>
+        <v>0.0005917088575302004</v>
       </c>
       <c r="T10">
-        <v>0.001072248857209151</v>
+        <v>0.0006354417378615447</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B11" t="s">
         <v>26</v>
@@ -1092,7 +1092,7 @@
         <v>27</v>
       </c>
       <c r="D11" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E11">
         <v>3</v>
@@ -1101,16 +1101,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>210.2874346666667</v>
+        <v>131.5521063333333</v>
       </c>
       <c r="H11">
-        <v>630.862304</v>
+        <v>394.6563190000001</v>
       </c>
       <c r="I11">
-        <v>0.3846614680933682</v>
+        <v>0.172533456858578</v>
       </c>
       <c r="J11">
-        <v>0.4131487080493621</v>
+        <v>0.1852853109603467</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>10.817615</v>
+        <v>28.05830633333333</v>
       </c>
       <c r="N11">
-        <v>32.452845</v>
+        <v>84.17491899999999</v>
       </c>
       <c r="O11">
-        <v>0.553476179748733</v>
+        <v>0.1719613756258118</v>
       </c>
       <c r="P11">
-        <v>0.5542187918963136</v>
+        <v>0.1719613756258118</v>
       </c>
       <c r="Q11">
-        <v>2274.808507561654</v>
+        <v>3691.129298295907</v>
       </c>
       <c r="R11">
-        <v>20473.27656805488</v>
+        <v>33220.16368466316</v>
       </c>
       <c r="S11">
-        <v>0.2129009598568566</v>
+        <v>0.02966909058287774</v>
       </c>
       <c r="T11">
-        <v>0.2289747778486403</v>
+        <v>0.03186191695599752</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1154,7 +1154,7 @@
         <v>27</v>
       </c>
       <c r="D12" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="E12">
         <v>3</v>
@@ -1163,46 +1163,46 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>129.8949766666667</v>
+        <v>131.5521063333333</v>
       </c>
       <c r="H12">
-        <v>389.68493</v>
+        <v>394.6563190000001</v>
       </c>
       <c r="I12">
-        <v>0.2376061722458875</v>
+        <v>0.172533456858578</v>
       </c>
       <c r="J12">
-        <v>0.255202798384045</v>
+        <v>0.1852853109603467</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="M12">
-        <v>0.078566</v>
+        <v>131.297198</v>
       </c>
       <c r="N12">
-        <v>0.157132</v>
+        <v>393.891594</v>
       </c>
       <c r="O12">
-        <v>0.004019777884324682</v>
+        <v>0.8046831663916869</v>
       </c>
       <c r="P12">
-        <v>0.002683447543913378</v>
+        <v>0.8046831663916869</v>
       </c>
       <c r="Q12">
-        <v>10.20532873679333</v>
+        <v>17272.42295256472</v>
       </c>
       <c r="R12">
-        <v>61.23197242076</v>
+        <v>155451.8065730825</v>
       </c>
       <c r="S12">
-        <v>0.0009551240363730595</v>
+        <v>0.1388347683734641</v>
       </c>
       <c r="T12">
-        <v>0.0006848233225234865</v>
+        <v>0.1490959707094401</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1216,7 +1216,7 @@
         <v>27</v>
       </c>
       <c r="D13" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="E13">
         <v>3</v>
@@ -1225,51 +1225,51 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>129.8949766666667</v>
+        <v>131.5521063333333</v>
       </c>
       <c r="H13">
-        <v>389.68493</v>
+        <v>394.6563190000001</v>
       </c>
       <c r="I13">
-        <v>0.2376061722458875</v>
+        <v>0.172533456858578</v>
       </c>
       <c r="J13">
-        <v>0.255202798384045</v>
+        <v>0.1852853109603467</v>
       </c>
       <c r="K13">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L13">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M13">
-        <v>0.559584</v>
+        <v>3.251240333333333</v>
       </c>
       <c r="N13">
-        <v>1.678752</v>
+        <v>9.753720999999999</v>
       </c>
       <c r="O13">
-        <v>0.02863074851235831</v>
+        <v>0.01992592687413657</v>
       </c>
       <c r="P13">
-        <v>0.02866916306824626</v>
+        <v>0.01992592687413657</v>
       </c>
       <c r="Q13">
-        <v>72.68715062304</v>
+        <v>427.7075140458888</v>
       </c>
       <c r="R13">
-        <v>654.18435560736</v>
+        <v>3849.367626412999</v>
       </c>
       <c r="S13">
-        <v>0.006802842562556095</v>
+        <v>0.003437889044706023</v>
       </c>
       <c r="T13">
-        <v>0.007316450642344959</v>
+        <v>0.003691981557047523</v>
       </c>
     </row>
     <row r="14" spans="1:20">
       <c r="A14" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B14" t="s">
         <v>26</v>
@@ -1278,122 +1278,122 @@
         <v>27</v>
       </c>
       <c r="D14" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E14">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>129.8949766666667</v>
+        <v>126.3423615</v>
       </c>
       <c r="H14">
-        <v>389.68493</v>
+        <v>252.684723</v>
       </c>
       <c r="I14">
-        <v>0.2376061722458875</v>
+        <v>0.1657007628751875</v>
       </c>
       <c r="J14">
-        <v>0.255202798384045</v>
+        <v>0.1186317441834349</v>
       </c>
       <c r="K14">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L14">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M14">
-        <v>8.038439</v>
+        <v>0.559584</v>
       </c>
       <c r="N14">
-        <v>24.115317</v>
+        <v>1.678752</v>
       </c>
       <c r="O14">
-        <v>0.4112814616588985</v>
+        <v>0.003429531108364747</v>
       </c>
       <c r="P14">
-        <v>0.4118332877729713</v>
+        <v>0.003429531108364747</v>
       </c>
       <c r="Q14">
-        <v>1044.152846341424</v>
+        <v>70.699164017616</v>
       </c>
       <c r="R14">
-        <v>9397.37561707281</v>
+        <v>424.194984105696</v>
       </c>
       <c r="S14">
-        <v>0.09772301382046458</v>
+        <v>0.000568275920960226</v>
       </c>
       <c r="T14">
-        <v>0.105101007507364</v>
+        <v>0.0004068512571166585</v>
       </c>
     </row>
     <row r="15" spans="1:20">
       <c r="A15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" t="s">
+        <v>26</v>
+      </c>
+      <c r="C15" t="s">
+        <v>27</v>
+      </c>
+      <c r="D15" t="s">
         <v>22</v>
       </c>
-      <c r="B15" t="s">
-        <v>26</v>
-      </c>
-      <c r="C15" t="s">
-        <v>27</v>
-      </c>
-      <c r="D15" t="s">
-        <v>24</v>
-      </c>
       <c r="E15">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>129.8949766666667</v>
+        <v>126.3423615</v>
       </c>
       <c r="H15">
-        <v>389.68493</v>
+        <v>252.684723</v>
       </c>
       <c r="I15">
-        <v>0.2376061722458875</v>
+        <v>0.1657007628751875</v>
       </c>
       <c r="J15">
-        <v>0.255202798384045</v>
+        <v>0.1186317441834349</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M15">
-        <v>0.050657</v>
+        <v>28.05830633333333</v>
       </c>
       <c r="N15">
-        <v>0.151971</v>
+        <v>84.17491899999999</v>
       </c>
       <c r="O15">
-        <v>0.002591832195685608</v>
+        <v>0.1719613756258118</v>
       </c>
       <c r="P15">
-        <v>0.002595309718555481</v>
+        <v>0.1719613756258118</v>
       </c>
       <c r="Q15">
-        <v>6.580089833003334</v>
+        <v>3544.952681843739</v>
       </c>
       <c r="R15">
-        <v>59.22080849703</v>
+        <v>21269.71609106243</v>
       </c>
       <c r="S15">
-        <v>0.0006158353271205111</v>
+        <v>0.02849413112626369</v>
       </c>
       <c r="T15">
-        <v>0.0006623303028486671</v>
+        <v>0.02040007792267285</v>
       </c>
     </row>
     <row r="16" spans="1:20">
       <c r="A16" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B16" t="s">
         <v>26</v>
@@ -1402,25 +1402,25 @@
         <v>27</v>
       </c>
       <c r="D16" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E16">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>129.8949766666667</v>
+        <v>126.3423615</v>
       </c>
       <c r="H16">
-        <v>389.68493</v>
+        <v>252.684723</v>
       </c>
       <c r="I16">
-        <v>0.2376061722458875</v>
+        <v>0.1657007628751875</v>
       </c>
       <c r="J16">
-        <v>0.255202798384045</v>
+        <v>0.1186317441834349</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1429,28 +1429,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>10.817615</v>
+        <v>131.297198</v>
       </c>
       <c r="N16">
-        <v>32.452845</v>
+        <v>393.891594</v>
       </c>
       <c r="O16">
-        <v>0.553476179748733</v>
+        <v>0.8046831663916869</v>
       </c>
       <c r="P16">
-        <v>0.5542187918963136</v>
+        <v>0.8046831663916869</v>
       </c>
       <c r="Q16">
-        <v>1405.153848013984</v>
+        <v>16588.39805365308</v>
       </c>
       <c r="R16">
-        <v>12646.38463212585</v>
+        <v>99530.38832191846</v>
       </c>
       <c r="S16">
-        <v>0.1315093564993732</v>
+        <v>0.133336614543924</v>
       </c>
       <c r="T16">
-        <v>0.1414381866089639</v>
+        <v>0.09546096754409496</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1464,7 +1464,7 @@
         <v>27</v>
       </c>
       <c r="D17" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="E17">
         <v>2</v>
@@ -1473,51 +1473,51 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>93.19123099999999</v>
+        <v>126.3423615</v>
       </c>
       <c r="H17">
-        <v>186.382462</v>
+        <v>252.684723</v>
       </c>
       <c r="I17">
-        <v>0.1704670361627196</v>
+        <v>0.1657007628751875</v>
       </c>
       <c r="J17">
-        <v>0.1220609836569967</v>
+        <v>0.1186317441834349</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="M17">
-        <v>0.078566</v>
+        <v>3.251240333333333</v>
       </c>
       <c r="N17">
-        <v>0.157132</v>
+        <v>9.753720999999999</v>
       </c>
       <c r="O17">
-        <v>0.004019777884324682</v>
+        <v>0.01992592687413657</v>
       </c>
       <c r="P17">
-        <v>0.002683447543913378</v>
+        <v>0.01992592687413657</v>
       </c>
       <c r="Q17">
-        <v>7.321662254745998</v>
+        <v>410.7693815173805</v>
       </c>
       <c r="R17">
-        <v>29.28664901898399</v>
+        <v>2464.616289104283</v>
       </c>
       <c r="S17">
-        <v>0.0006852396219732761</v>
+        <v>0.00330174128403963</v>
       </c>
       <c r="T17">
-        <v>0.0003275442468020189</v>
+        <v>0.002363847459550399</v>
       </c>
     </row>
     <row r="18" spans="1:20">
       <c r="A18" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B18" t="s">
         <v>26</v>
@@ -1529,22 +1529,22 @@
         <v>21</v>
       </c>
       <c r="E18">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>93.19123099999999</v>
+        <v>120.618675</v>
       </c>
       <c r="H18">
-        <v>186.382462</v>
+        <v>361.856025</v>
       </c>
       <c r="I18">
-        <v>0.1704670361627196</v>
+        <v>0.1581940231859154</v>
       </c>
       <c r="J18">
-        <v>0.1220609836569967</v>
+        <v>0.1698860575319965</v>
       </c>
       <c r="K18">
         <v>2</v>
@@ -1559,27 +1559,27 @@
         <v>1.678752</v>
       </c>
       <c r="O18">
-        <v>0.02863074851235831</v>
+        <v>0.003429531108364747</v>
       </c>
       <c r="P18">
-        <v>0.02866916306824626</v>
+        <v>0.003429531108364747</v>
       </c>
       <c r="Q18">
-        <v>52.14832180790399</v>
+        <v>67.49628063119999</v>
       </c>
       <c r="R18">
-        <v>312.889930847424</v>
+        <v>607.4665256808</v>
       </c>
       <c r="S18">
-        <v>0.004880598842021914</v>
+        <v>0.000542531323673471</v>
       </c>
       <c r="T18">
-        <v>0.003499386244732981</v>
+        <v>0.0005826295191834253</v>
       </c>
     </row>
     <row r="19" spans="1:20">
       <c r="A19" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B19" t="s">
         <v>26</v>
@@ -1591,22 +1591,22 @@
         <v>22</v>
       </c>
       <c r="E19">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>93.19123099999999</v>
+        <v>120.618675</v>
       </c>
       <c r="H19">
-        <v>186.382462</v>
+        <v>361.856025</v>
       </c>
       <c r="I19">
-        <v>0.1704670361627196</v>
+        <v>0.1581940231859154</v>
       </c>
       <c r="J19">
-        <v>0.1220609836569967</v>
+        <v>0.1698860575319965</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1615,33 +1615,33 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>8.038439</v>
+        <v>28.05830633333333</v>
       </c>
       <c r="N19">
-        <v>24.115317</v>
+        <v>84.17491899999999</v>
       </c>
       <c r="O19">
-        <v>0.4112814616588985</v>
+        <v>0.1719613756258118</v>
       </c>
       <c r="P19">
-        <v>0.4118332877729713</v>
+        <v>0.1719613756258118</v>
       </c>
       <c r="Q19">
-        <v>749.112025728409</v>
+        <v>3384.355732670775</v>
       </c>
       <c r="R19">
-        <v>4494.672154370453</v>
+        <v>30459.20159403697</v>
       </c>
       <c r="S19">
-        <v>0.0701099317976636</v>
+        <v>0.02720326184283159</v>
       </c>
       <c r="T19">
-        <v>0.05026877620826389</v>
+        <v>0.02921384015284793</v>
       </c>
     </row>
     <row r="20" spans="1:20">
       <c r="A20" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B20" t="s">
         <v>26</v>
@@ -1653,57 +1653,57 @@
         <v>24</v>
       </c>
       <c r="E20">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>93.19123099999999</v>
+        <v>120.618675</v>
       </c>
       <c r="H20">
-        <v>186.382462</v>
+        <v>361.856025</v>
       </c>
       <c r="I20">
-        <v>0.1704670361627196</v>
+        <v>0.1581940231859154</v>
       </c>
       <c r="J20">
-        <v>0.1220609836569967</v>
+        <v>0.1698860575319965</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L20">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M20">
-        <v>0.050657</v>
+        <v>131.297198</v>
       </c>
       <c r="N20">
-        <v>0.151971</v>
+        <v>393.891594</v>
       </c>
       <c r="O20">
-        <v>0.002591832195685608</v>
+        <v>0.8046831663916869</v>
       </c>
       <c r="P20">
-        <v>0.002595309718555481</v>
+        <v>0.8046831663916869</v>
       </c>
       <c r="Q20">
-        <v>4.720788188766999</v>
+        <v>15836.89405397265</v>
       </c>
       <c r="R20">
-        <v>28.32472913260199</v>
+        <v>142532.0464857538</v>
       </c>
       <c r="S20">
-        <v>0.0004418219526296394</v>
+        <v>0.1272960674814823</v>
       </c>
       <c r="T20">
-        <v>0.0003167860571414454</v>
+        <v>0.1367044507006473</v>
       </c>
     </row>
     <row r="21" spans="1:20">
       <c r="A21" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B21" t="s">
         <v>26</v>
@@ -1715,22 +1715,22 @@
         <v>25</v>
       </c>
       <c r="E21">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21">
-        <v>93.19123099999999</v>
+        <v>120.618675</v>
       </c>
       <c r="H21">
-        <v>186.382462</v>
+        <v>361.856025</v>
       </c>
       <c r="I21">
-        <v>0.1704670361627196</v>
+        <v>0.1581940231859154</v>
       </c>
       <c r="J21">
-        <v>0.1220609836569967</v>
+        <v>0.1698860575319965</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1739,33 +1739,33 @@
         <v>1</v>
       </c>
       <c r="M21">
-        <v>10.817615</v>
+        <v>3.251240333333333</v>
       </c>
       <c r="N21">
-        <v>32.452845</v>
+        <v>9.753720999999999</v>
       </c>
       <c r="O21">
-        <v>0.553476179748733</v>
+        <v>0.01992592687413657</v>
       </c>
       <c r="P21">
-        <v>0.5542187918963136</v>
+        <v>0.01992592687413657</v>
       </c>
       <c r="Q21">
-        <v>1008.106858334065</v>
+        <v>392.1603011132249</v>
       </c>
       <c r="R21">
-        <v>6048.64115000439</v>
+        <v>3529.442710019025</v>
       </c>
       <c r="S21">
-        <v>0.09434944394843114</v>
+        <v>0.003152162537928016</v>
       </c>
       <c r="T21">
-        <v>0.06764849090005642</v>
+        <v>0.00338513715931792</v>
       </c>
     </row>
     <row r="22" spans="1:20">
       <c r="A22" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B22" t="s">
         <v>26</v>
@@ -1774,7 +1774,7 @@
         <v>27</v>
       </c>
       <c r="D22" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E22">
         <v>3</v>
@@ -1783,51 +1783,51 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>17.22153466666667</v>
+        <v>142.588219</v>
       </c>
       <c r="H22">
-        <v>51.664604</v>
+        <v>427.7646569999999</v>
       </c>
       <c r="I22">
-        <v>0.03150193361862766</v>
+        <v>0.187007559339583</v>
       </c>
       <c r="J22">
-        <v>0.03383490225861063</v>
+        <v>0.2008291864955316</v>
       </c>
       <c r="K22">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L22">
-        <v>0.5</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M22">
-        <v>0.078566</v>
+        <v>0.559584</v>
       </c>
       <c r="N22">
-        <v>0.157132</v>
+        <v>1.678752</v>
       </c>
       <c r="O22">
-        <v>0.004019777884324682</v>
+        <v>0.003429531108364747</v>
       </c>
       <c r="P22">
-        <v>0.002683447543913378</v>
+        <v>0.003429531108364747</v>
       </c>
       <c r="Q22">
-        <v>1.353027092621333</v>
+        <v>79.79008594089599</v>
       </c>
       <c r="R22">
-        <v>8.118162555727999</v>
+        <v>718.1107734680639</v>
       </c>
       <c r="S22">
-        <v>0.0001266307760736237</v>
+        <v>0.0006413482422544665</v>
       </c>
       <c r="T22">
-        <v>9.079418536441788E-05</v>
+        <v>0.0006887499425540112</v>
       </c>
     </row>
     <row r="23" spans="1:20">
       <c r="A23" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B23" t="s">
         <v>26</v>
@@ -1836,7 +1836,7 @@
         <v>27</v>
       </c>
       <c r="D23" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E23">
         <v>3</v>
@@ -1845,61 +1845,61 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>17.22153466666667</v>
+        <v>142.588219</v>
       </c>
       <c r="H23">
-        <v>51.664604</v>
+        <v>427.7646569999999</v>
       </c>
       <c r="I23">
-        <v>0.03150193361862766</v>
+        <v>0.187007559339583</v>
       </c>
       <c r="J23">
-        <v>0.03383490225861063</v>
+        <v>0.2008291864955316</v>
       </c>
       <c r="K23">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L23">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M23">
-        <v>0.559584</v>
+        <v>28.05830633333333</v>
       </c>
       <c r="N23">
-        <v>1.678752</v>
+        <v>84.17491899999999</v>
       </c>
       <c r="O23">
-        <v>0.02863074851235831</v>
+        <v>0.1719613756258118</v>
       </c>
       <c r="P23">
-        <v>0.02866916306824626</v>
+        <v>0.1719613756258118</v>
       </c>
       <c r="Q23">
-        <v>9.636895254912</v>
+        <v>4000.783928226419</v>
       </c>
       <c r="R23">
-        <v>86.73205729420799</v>
+        <v>36007.05535403777</v>
       </c>
       <c r="S23">
-        <v>0.000901923939087934</v>
+        <v>0.03215807715646033</v>
       </c>
       <c r="T23">
-        <v>0.0009700183302502817</v>
+        <v>0.03453486317558432</v>
       </c>
     </row>
     <row r="24" spans="1:20">
       <c r="A24" t="s">
+        <v>25</v>
+      </c>
+      <c r="B24" t="s">
+        <v>26</v>
+      </c>
+      <c r="C24" t="s">
+        <v>27</v>
+      </c>
+      <c r="D24" t="s">
         <v>24</v>
       </c>
-      <c r="B24" t="s">
-        <v>26</v>
-      </c>
-      <c r="C24" t="s">
-        <v>27</v>
-      </c>
-      <c r="D24" t="s">
-        <v>22</v>
-      </c>
       <c r="E24">
         <v>3</v>
       </c>
@@ -1907,16 +1907,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>17.22153466666667</v>
+        <v>142.588219</v>
       </c>
       <c r="H24">
-        <v>51.664604</v>
+        <v>427.7646569999999</v>
       </c>
       <c r="I24">
-        <v>0.03150193361862766</v>
+        <v>0.187007559339583</v>
       </c>
       <c r="J24">
-        <v>0.03383490225861063</v>
+        <v>0.2008291864955316</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1925,33 +1925,33 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>8.038439</v>
+        <v>131.297198</v>
       </c>
       <c r="N24">
-        <v>24.115317</v>
+        <v>393.891594</v>
       </c>
       <c r="O24">
-        <v>0.4112814616588985</v>
+        <v>0.8046831663916869</v>
       </c>
       <c r="P24">
-        <v>0.4118332877729713</v>
+        <v>0.8046831663916869</v>
       </c>
       <c r="Q24">
-        <v>138.4342559043853</v>
+        <v>18721.43362251036</v>
       </c>
       <c r="R24">
-        <v>1245.908303139468</v>
+        <v>168492.9026025932</v>
       </c>
       <c r="S24">
-        <v>0.01295616130375078</v>
+        <v>0.150481834988557</v>
       </c>
       <c r="T24">
-        <v>0.01393433903864075</v>
+        <v>0.161603865693091</v>
       </c>
     </row>
     <row r="25" spans="1:20">
       <c r="A25" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B25" t="s">
         <v>26</v>
@@ -1960,7 +1960,7 @@
         <v>27</v>
       </c>
       <c r="D25" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E25">
         <v>3</v>
@@ -1969,418 +1969,46 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>17.22153466666667</v>
+        <v>142.588219</v>
       </c>
       <c r="H25">
-        <v>51.664604</v>
+        <v>427.7646569999999</v>
       </c>
       <c r="I25">
-        <v>0.03150193361862766</v>
+        <v>0.187007559339583</v>
       </c>
       <c r="J25">
-        <v>0.03383490225861063</v>
+        <v>0.2008291864955316</v>
       </c>
       <c r="K25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L25">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M25">
-        <v>0.050657</v>
+        <v>3.251240333333333</v>
       </c>
       <c r="N25">
-        <v>0.151971</v>
+        <v>9.753720999999999</v>
       </c>
       <c r="O25">
-        <v>0.002591832195685608</v>
+        <v>0.01992592687413657</v>
       </c>
       <c r="P25">
-        <v>0.002595309718555481</v>
+        <v>0.01992592687413657</v>
       </c>
       <c r="Q25">
-        <v>0.8723912816093333</v>
+        <v>463.5885686709663</v>
       </c>
       <c r="R25">
-        <v>7.851521534483999</v>
+        <v>4172.297118038696</v>
       </c>
       <c r="S25">
-        <v>8.164772577910999E-05</v>
+        <v>0.003726298952311287</v>
       </c>
       <c r="T25">
-        <v>8.781205065814697E-05</v>
-      </c>
-    </row>
-    <row r="26" spans="1:20">
-      <c r="A26" t="s">
-        <v>24</v>
-      </c>
-      <c r="B26" t="s">
-        <v>26</v>
-      </c>
-      <c r="C26" t="s">
-        <v>27</v>
-      </c>
-      <c r="D26" t="s">
-        <v>25</v>
-      </c>
-      <c r="E26">
-        <v>3</v>
-      </c>
-      <c r="F26">
-        <v>1</v>
-      </c>
-      <c r="G26">
-        <v>17.22153466666667</v>
-      </c>
-      <c r="H26">
-        <v>51.664604</v>
-      </c>
-      <c r="I26">
-        <v>0.03150193361862766</v>
-      </c>
-      <c r="J26">
-        <v>0.03383490225861063</v>
-      </c>
-      <c r="K26">
-        <v>3</v>
-      </c>
-      <c r="L26">
-        <v>1</v>
-      </c>
-      <c r="M26">
-        <v>10.817615</v>
-      </c>
-      <c r="N26">
-        <v>32.452845</v>
-      </c>
-      <c r="O26">
-        <v>0.553476179748733</v>
-      </c>
-      <c r="P26">
-        <v>0.5542187918963136</v>
-      </c>
-      <c r="Q26">
-        <v>186.2959317331534</v>
-      </c>
-      <c r="R26">
-        <v>1676.66338559838</v>
-      </c>
-      <c r="S26">
-        <v>0.01743556987393622</v>
-      </c>
-      <c r="T26">
-        <v>0.01875193865369703</v>
-      </c>
-    </row>
-    <row r="27" spans="1:20">
-      <c r="A27" t="s">
-        <v>25</v>
-      </c>
-      <c r="B27" t="s">
-        <v>26</v>
-      </c>
-      <c r="C27" t="s">
-        <v>27</v>
-      </c>
-      <c r="D27" t="s">
-        <v>20</v>
-      </c>
-      <c r="E27">
-        <v>3</v>
-      </c>
-      <c r="F27">
-        <v>1</v>
-      </c>
-      <c r="G27">
-        <v>76.19421933333332</v>
-      </c>
-      <c r="H27">
-        <v>228.582658</v>
-      </c>
-      <c r="I27">
-        <v>0.1393758039582664</v>
-      </c>
-      <c r="J27">
-        <v>0.1496976903460524</v>
-      </c>
-      <c r="K27">
-        <v>1</v>
-      </c>
-      <c r="L27">
-        <v>0.5</v>
-      </c>
-      <c r="M27">
-        <v>0.078566</v>
-      </c>
-      <c r="N27">
-        <v>0.157132</v>
-      </c>
-      <c r="O27">
-        <v>0.004019777884324682</v>
-      </c>
-      <c r="P27">
-        <v>0.002683447543913378</v>
-      </c>
-      <c r="Q27">
-        <v>5.986275036142666</v>
-      </c>
-      <c r="R27">
-        <v>35.917650216856</v>
-      </c>
-      <c r="S27">
-        <v>0.0005602597743614119</v>
-      </c>
-      <c r="T27">
-        <v>0.0004017058994886197</v>
-      </c>
-    </row>
-    <row r="28" spans="1:20">
-      <c r="A28" t="s">
-        <v>25</v>
-      </c>
-      <c r="B28" t="s">
-        <v>26</v>
-      </c>
-      <c r="C28" t="s">
-        <v>27</v>
-      </c>
-      <c r="D28" t="s">
-        <v>21</v>
-      </c>
-      <c r="E28">
-        <v>3</v>
-      </c>
-      <c r="F28">
-        <v>1</v>
-      </c>
-      <c r="G28">
-        <v>76.19421933333332</v>
-      </c>
-      <c r="H28">
-        <v>228.582658</v>
-      </c>
-      <c r="I28">
-        <v>0.1393758039582664</v>
-      </c>
-      <c r="J28">
-        <v>0.1496976903460524</v>
-      </c>
-      <c r="K28">
-        <v>2</v>
-      </c>
-      <c r="L28">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="M28">
-        <v>0.559584</v>
-      </c>
-      <c r="N28">
-        <v>1.678752</v>
-      </c>
-      <c r="O28">
-        <v>0.02863074851235831</v>
-      </c>
-      <c r="P28">
-        <v>0.02866916306824626</v>
-      </c>
-      <c r="Q28">
-        <v>42.63706603142399</v>
-      </c>
-      <c r="R28">
-        <v>383.733594282816</v>
-      </c>
-      <c r="S28">
-        <v>0.00399043359183688</v>
-      </c>
-      <c r="T28">
-        <v>0.00429170749547081</v>
-      </c>
-    </row>
-    <row r="29" spans="1:20">
-      <c r="A29" t="s">
-        <v>25</v>
-      </c>
-      <c r="B29" t="s">
-        <v>26</v>
-      </c>
-      <c r="C29" t="s">
-        <v>27</v>
-      </c>
-      <c r="D29" t="s">
-        <v>22</v>
-      </c>
-      <c r="E29">
-        <v>3</v>
-      </c>
-      <c r="F29">
-        <v>1</v>
-      </c>
-      <c r="G29">
-        <v>76.19421933333332</v>
-      </c>
-      <c r="H29">
-        <v>228.582658</v>
-      </c>
-      <c r="I29">
-        <v>0.1393758039582664</v>
-      </c>
-      <c r="J29">
-        <v>0.1496976903460524</v>
-      </c>
-      <c r="K29">
-        <v>3</v>
-      </c>
-      <c r="L29">
-        <v>1</v>
-      </c>
-      <c r="M29">
-        <v>8.038439</v>
-      </c>
-      <c r="N29">
-        <v>24.115317</v>
-      </c>
-      <c r="O29">
-        <v>0.4112814616588985</v>
-      </c>
-      <c r="P29">
-        <v>0.4118332877729713</v>
-      </c>
-      <c r="Q29">
-        <v>612.4825842636207</v>
-      </c>
-      <c r="R29">
-        <v>5512.343258372586</v>
-      </c>
-      <c r="S29">
-        <v>0.0573226843718399</v>
-      </c>
-      <c r="T29">
-        <v>0.06165049198723495</v>
-      </c>
-    </row>
-    <row r="30" spans="1:20">
-      <c r="A30" t="s">
-        <v>25</v>
-      </c>
-      <c r="B30" t="s">
-        <v>26</v>
-      </c>
-      <c r="C30" t="s">
-        <v>27</v>
-      </c>
-      <c r="D30" t="s">
-        <v>24</v>
-      </c>
-      <c r="E30">
-        <v>3</v>
-      </c>
-      <c r="F30">
-        <v>1</v>
-      </c>
-      <c r="G30">
-        <v>76.19421933333332</v>
-      </c>
-      <c r="H30">
-        <v>228.582658</v>
-      </c>
-      <c r="I30">
-        <v>0.1393758039582664</v>
-      </c>
-      <c r="J30">
-        <v>0.1496976903460524</v>
-      </c>
-      <c r="K30">
-        <v>1</v>
-      </c>
-      <c r="L30">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M30">
-        <v>0.050657</v>
-      </c>
-      <c r="N30">
-        <v>0.151971</v>
-      </c>
-      <c r="O30">
-        <v>0.002591832195685608</v>
-      </c>
-      <c r="P30">
-        <v>0.002595309718555481</v>
-      </c>
-      <c r="Q30">
-        <v>3.859770568768666</v>
-      </c>
-      <c r="R30">
-        <v>34.737935118918</v>
-      </c>
-      <c r="S30">
-        <v>0.0003612386959986005</v>
-      </c>
-      <c r="T30">
-        <v>0.0003885118706004189</v>
-      </c>
-    </row>
-    <row r="31" spans="1:20">
-      <c r="A31" t="s">
-        <v>25</v>
-      </c>
-      <c r="B31" t="s">
-        <v>26</v>
-      </c>
-      <c r="C31" t="s">
-        <v>27</v>
-      </c>
-      <c r="D31" t="s">
-        <v>25</v>
-      </c>
-      <c r="E31">
-        <v>3</v>
-      </c>
-      <c r="F31">
-        <v>1</v>
-      </c>
-      <c r="G31">
-        <v>76.19421933333332</v>
-      </c>
-      <c r="H31">
-        <v>228.582658</v>
-      </c>
-      <c r="I31">
-        <v>0.1393758039582664</v>
-      </c>
-      <c r="J31">
-        <v>0.1496976903460524</v>
-      </c>
-      <c r="K31">
-        <v>3</v>
-      </c>
-      <c r="L31">
-        <v>1</v>
-      </c>
-      <c r="M31">
-        <v>10.817615</v>
-      </c>
-      <c r="N31">
-        <v>32.452845</v>
-      </c>
-      <c r="O31">
-        <v>0.553476179748733</v>
-      </c>
-      <c r="P31">
-        <v>0.5542187918963136</v>
-      </c>
-      <c r="Q31">
-        <v>824.2397299735567</v>
-      </c>
-      <c r="R31">
-        <v>7418.15756976201</v>
-      </c>
-      <c r="S31">
-        <v>0.07714118752422965</v>
-      </c>
-      <c r="T31">
-        <v>0.08296527309325762</v>
+        <v>0.004001707684302298</v>
       </c>
     </row>
   </sheetData>
